--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -136,74 +136,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,6 +276,96 @@
                 <c:pt idx="0">
                   <c:v>423.75000000000006</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1610.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -359,11 +381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-235026224"/>
-        <c:axId val="-235021872"/>
+        <c:axId val="1219564832"/>
+        <c:axId val="1219571904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-235026224"/>
+        <c:axId val="1219564832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-235021872"/>
+        <c:crossAx val="1219571904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -413,7 +435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-235021872"/>
+        <c:axId val="1219571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-235026224"/>
+        <c:crossAx val="1219564832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -664,43 +686,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6</c:v>
+                  <c:v>370.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67</c:v>
+                  <c:v>147.67000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84000000000000008</c:v>
+                  <c:v>1.4800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6000000000000005</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -722,11 +744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-235025680"/>
-        <c:axId val="-235025136"/>
+        <c:axId val="1219574624"/>
+        <c:axId val="1219575712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-235025680"/>
+        <c:axId val="1219574624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-235025136"/>
+        <c:crossAx val="1219575712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-235025136"/>
+        <c:axId val="1219575712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-235025680"/>
+        <c:crossAx val="1219574624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2036,7 +2058,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2289,7 +2311,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2418,211 +2440,763 @@
       <c r="A3" s="2">
         <v>43467</v>
       </c>
+      <c r="B3">
+        <v>163</v>
+      </c>
+      <c r="C3">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>264</v>
+      </c>
+      <c r="E3">
+        <v>268</v>
+      </c>
+      <c r="F3">
+        <v>217</v>
+      </c>
+      <c r="G3">
+        <v>236</v>
+      </c>
+      <c r="H3">
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <v>64</v>
+      </c>
+      <c r="J3">
+        <v>194</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N32" si="1">M3*0.4</f>
+        <v>6.4</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P32" si="2">O3*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(B3:J3,L3,N3,P3)</f>
+        <v>1610.44</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>66</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>83</v>
+      </c>
+      <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(B4:J4,L4,N4,P4)</f>
+        <v>604</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
-        <f t="shared" ref="B33:P33" si="0">SUM(B2:B32)</f>
-        <v>63</v>
+        <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
+        <v>278</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>107</v>
+        <f t="shared" si="4"/>
+        <v>323</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
+        <f t="shared" si="4"/>
+        <v>370.6</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>377</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>339</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f t="shared" si="4"/>
+        <v>338</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0.67</v>
+        <f t="shared" si="4"/>
+        <v>147.67000000000002</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>119</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>328</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
+        <f t="shared" si="4"/>
+        <v>3.7</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
+        <f t="shared" si="4"/>
+        <v>1.4800000000000002</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>5.6000000000000005</v>
+        <f t="shared" si="4"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
@@ -2632,7 +3206,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>423.75000000000006</v>
+        <v>2638.19</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="11745"/>
+    <workbookView windowWidth="22545" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -78,8 +73,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,22 +89,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -131,17 +697,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,6 +794,7 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -191,8 +802,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43723006046645502"/>
-          <c:y val="5.3912485174913698E-2"/>
+          <c:x val="0.437230060466455"/>
+          <c:y val="0.0539124851749137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -203,26 +814,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -231,10 +822,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7463288223438E-2"/>
+          <c:x val="0.067463288223438"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.89467319320472205"/>
-          <c:h val="0.65778617989852095"/>
+          <c:w val="0.894673193204722"/>
+          <c:h val="0.657786179898521"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -267,6 +858,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$32</c:f>
@@ -274,7 +868,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>423.75000000000006</c:v>
+                  <c:v>423.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1610.44</c:v>
@@ -283,10 +877,10 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1051.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>732.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -424,7 +1018,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219571904"/>
@@ -483,7 +1076,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219564832"/>
@@ -524,7 +1116,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -585,26 +1176,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -626,6 +1197,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -686,49 +1260,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>278</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>370.6</c:v>
+                  <c:v>695.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>377</c:v>
+                  <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>338</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.67000000000002</c:v>
+                  <c:v>237.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4800000000000002</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0000000000000008E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +1362,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219575712"/>
@@ -847,7 +1420,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1219574624"/>
@@ -888,7 +1460,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1986,7 +2557,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2000,14 +2571,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="13081000" y="3666490"/>
+        <a:ext cx="5010150" cy="2898140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2030,14 +2601,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12967970" y="242570"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2058,7 +2629,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2302,19 +2873,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
@@ -2326,7 +2897,7 @@
     <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43466</v>
       </c>
@@ -2415,28 +2986,28 @@
       </c>
       <c r="L2">
         <f>K2*0.4</f>
-        <v>0.84000000000000008</v>
+        <v>0.84</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
         <f>O2*0.4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q2">
         <f>SUM(B2:J2,L2,N2,P2)</f>
-        <v>423.75000000000006</v>
+        <v>423.75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -2472,7 +3043,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -2493,7 +3064,7 @@
         <v>1610.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
@@ -2529,14 +3100,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2550,16 +3121,52 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
+      <c r="B5">
+        <v>159</v>
+      </c>
+      <c r="C5">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>136</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>82</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>143</v>
+      </c>
+      <c r="K5">
+        <v>0.3</v>
+      </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
@@ -2568,19 +3175,55 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
-        <v>0</v>
+        <v>1051.92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>142</v>
+      </c>
+      <c r="G6">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>93</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
       <c r="N6">
         <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
@@ -2589,10 +3232,10 @@
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>732.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
@@ -2613,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
@@ -2634,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
@@ -2655,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
@@ -2676,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
@@ -2697,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
@@ -2718,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
@@ -2739,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
@@ -2760,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
@@ -2781,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
@@ -2802,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
@@ -2823,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
@@ -2844,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
@@ -2865,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
@@ -2886,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
@@ -2907,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
@@ -2928,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
@@ -2949,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
@@ -2970,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
@@ -2991,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
@@ -3012,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
@@ -3033,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
@@ -3054,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
@@ -3075,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
@@ -3096,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
@@ -3117,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
@@ -3138,58 +3781,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>278</v>
+        <v>512</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>323</v>
+        <v>522</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>370.6</v>
+        <v>695.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>377</v>
+        <v>594</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>339</v>
+        <v>617</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>460</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>147.67000000000002</v>
+        <v>237.67</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>328</v>
+        <v>564</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>1.4800000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>16.399999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3197,43 +3840,43 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="16:17">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>2638.19</v>
+        <v>4422.71</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:6">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22545" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -73,14 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,345 +88,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,251 +111,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -697,61 +131,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,7 +184,6 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -802,8 +191,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.437230060466455"/>
-          <c:y val="0.0539124851749137"/>
+          <c:x val="0.43723006046645502"/>
+          <c:y val="5.3912485174913698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -814,6 +203,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -822,10 +231,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.067463288223438"/>
+          <c:x val="6.7463288223438E-2"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.894673193204722"/>
-          <c:h val="0.657786179898521"/>
+          <c:w val="0.89467319320472205"/>
+          <c:h val="0.65778617989852095"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -858,9 +267,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$32</c:f>
@@ -868,7 +274,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>423.75</c:v>
+                  <c:v>423.75000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1610.44</c:v>
@@ -877,22 +283,22 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.92</c:v>
+                  <c:v>1051.9199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>732.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>831.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1282.8399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1170.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>686.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -975,11 +381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1219564832"/>
-        <c:axId val="1219571904"/>
+        <c:axId val="-470531056"/>
+        <c:axId val="-470530512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1219564832"/>
+        <c:axId val="-470531056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,9 +424,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219571904"/>
+        <c:crossAx val="-470530512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1219571904"/>
+        <c:axId val="-470530512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,9 +483,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219564832"/>
+        <c:crossAx val="-470531056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,6 +524,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1176,6 +585,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1197,9 +626,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -1260,49 +686,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>512</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>695.6</c:v>
+                  <c:v>1164.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>594</c:v>
+                  <c:v>1164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>460</c:v>
+                  <c:v>859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>237.67</c:v>
+                  <c:v>413.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>192</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>564</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.8</c:v>
+                  <c:v>47.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0000000000000008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,11 +744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1219574624"/>
-        <c:axId val="1219575712"/>
+        <c:axId val="-470537040"/>
+        <c:axId val="-470533776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1219574624"/>
+        <c:axId val="-470537040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,9 +788,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219575712"/>
+        <c:crossAx val="-470533776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1219575712"/>
+        <c:axId val="-470533776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,9 +847,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219574624"/>
+        <c:crossAx val="-470537040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,6 +888,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2557,7 +1986,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2571,14 +2000,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13081000" y="3666490"/>
-        <a:ext cx="5010150" cy="2898140"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2601,14 +2030,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12967970" y="242570"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2629,7 +2058,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2873,19 +2302,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
@@ -2897,7 +2326,7 @@
     <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43466</v>
       </c>
@@ -2986,28 +2415,28 @@
       </c>
       <c r="L2">
         <f>K2*0.4</f>
-        <v>0.84</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
         <f>O2*0.4</f>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="Q2">
         <f>SUM(B2:J2,L2,N2,P2)</f>
-        <v>423.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>423.75000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -3043,7 +2472,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -3064,7 +2493,7 @@
         <v>1610.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
@@ -3100,14 +2529,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3121,7 +2550,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
@@ -3164,7 +2593,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -3175,10 +2604,10 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
-        <v>1051.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1051.9199999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
@@ -3221,7 +2650,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3235,16 +2664,52 @@
         <v>732.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
+      <c r="B7">
+        <v>222</v>
+      </c>
+      <c r="C7">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>117</v>
+      </c>
+      <c r="H7">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>74</v>
+      </c>
+      <c r="K7">
+        <v>0.4</v>
+      </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
@@ -3253,19 +2718,55 @@
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>831.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
+      <c r="B8">
+        <v>276</v>
+      </c>
+      <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>210</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>176</v>
+      </c>
+      <c r="G8">
+        <v>103</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+      <c r="I8">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>138</v>
+      </c>
+      <c r="K8">
+        <v>0.6</v>
+      </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24</v>
+      </c>
+      <c r="M8">
+        <v>14</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
@@ -3274,19 +2775,55 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1282.8399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
+      <c r="B9">
+        <v>115</v>
+      </c>
+      <c r="C9">
+        <v>124</v>
+      </c>
+      <c r="D9">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>195</v>
+      </c>
+      <c r="F9">
+        <v>216</v>
+      </c>
+      <c r="G9">
+        <v>111</v>
+      </c>
+      <c r="H9">
+        <v>41</v>
+      </c>
+      <c r="I9">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <v>190</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
       <c r="N9">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
@@ -3295,19 +2832,55 @@
       </c>
       <c r="Q9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1170.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
+      <c r="B10">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>119</v>
+      </c>
+      <c r="F10">
+        <v>135</v>
+      </c>
+      <c r="G10">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+      <c r="J10">
+        <v>78</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
@@ -3316,10 +2889,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>686.40000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
@@ -3340,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
@@ -3361,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
@@ -3382,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
@@ -3403,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
@@ -3424,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
@@ -3445,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
@@ -3466,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
@@ -3487,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
@@ -3508,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
@@ -3529,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
@@ -3550,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
@@ -3571,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
@@ -3592,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
@@ -3613,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
@@ -3634,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
@@ -3655,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
@@ -3676,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
@@ -3697,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
@@ -3718,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
@@ -3739,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
@@ -3760,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
@@ -3781,58 +3354,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>512</v>
+        <v>1231</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>522</v>
+        <v>872</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>695.6</v>
+        <v>1164.5999999999999</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>594</v>
+        <v>1164</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>617</v>
+        <v>1193</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>460</v>
+        <v>859</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>237.67</v>
+        <v>413.67</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>192</v>
+        <v>403</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>564</v>
+        <v>1044</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>26.8</v>
+        <v>47.600000000000009</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3840,43 +3413,43 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="16:17">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>4422.71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>8394.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -136,6 +136,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -301,7 +369,7 @@
                   <c:v>686.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>482.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -381,11 +449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-470531056"/>
-        <c:axId val="-470530512"/>
+        <c:axId val="1653279792"/>
+        <c:axId val="1653265648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-470531056"/>
+        <c:axId val="1653279792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-470530512"/>
+        <c:crossAx val="1653265648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-470530512"/>
+        <c:axId val="1653265648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-470531056"/>
+        <c:crossAx val="1653279792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -686,43 +754,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1231</c:v>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>872</c:v>
+                  <c:v>924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1164.5999999999999</c:v>
+                  <c:v>1192.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1164</c:v>
+                  <c:v>1252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1193</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>859</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>413.67</c:v>
+                  <c:v>421.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>403</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1044</c:v>
+                  <c:v>1121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.600000000000009</c:v>
+                  <c:v>53.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -744,11 +812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-470537040"/>
-        <c:axId val="-470533776"/>
+        <c:axId val="1653268368"/>
+        <c:axId val="1653268912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-470537040"/>
+        <c:axId val="1653268368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-470533776"/>
+        <c:crossAx val="1653268912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-470533776"/>
+        <c:axId val="1653268912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +918,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-470537040"/>
+        <c:crossAx val="1653268368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2058,7 +2126,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2896,12 +2964,48 @@
       <c r="A11" s="2">
         <v>43475</v>
       </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>7.9</v>
+      </c>
+      <c r="I11">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>77</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
@@ -2910,7 +3014,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>482.09999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -3357,55 +3461,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1231</v>
+        <v>1272</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>872</v>
+        <v>924</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1164.5999999999999</v>
+        <v>1192.5999999999999</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1164</v>
+        <v>1252</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1193</v>
+        <v>1288</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>859</v>
+        <v>917</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>413.67</v>
+        <v>421.57</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1044</v>
+        <v>1121</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>47.600000000000009</v>
+        <v>53.600000000000009</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3422,7 +3526,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>8394.11</v>
+        <v>8876.2100000000009</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="11745"/>
+    <workbookView windowWidth="16215" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -78,8 +73,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,22 +89,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -131,85 +697,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -252,6 +794,7 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -259,8 +802,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43723006046645502"/>
-          <c:y val="5.3912485174913698E-2"/>
+          <c:x val="0.437230060466455"/>
+          <c:y val="0.0539124851749137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -271,26 +814,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -299,10 +822,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7463288223438E-2"/>
+          <c:x val="0.067463288223438"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.89467319320472205"/>
-          <c:h val="0.65778617989852095"/>
+          <c:w val="0.894673193204722"/>
+          <c:h val="0.657786179898521"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -335,6 +858,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$32</c:f>
@@ -342,7 +868,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>423.75000000000006</c:v>
+                  <c:v>423.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1610.44</c:v>
@@ -351,7 +877,7 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.9199999999998</c:v>
+                  <c:v>1051.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>732.6</c:v>
@@ -360,22 +886,22 @@
                   <c:v>831.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1282.8399999999999</c:v>
+                  <c:v>1282.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1170.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686.40000000000009</c:v>
+                  <c:v>686.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>482.09999999999997</c:v>
+                  <c:v>482.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>484.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>245.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -492,7 +1018,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1653265648"/>
@@ -551,7 +1076,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1653279792"/>
@@ -592,7 +1116,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -653,26 +1176,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -694,6 +1197,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -754,49 +1260,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1272</c:v>
+                  <c:v>1357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>924</c:v>
+                  <c:v>983.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1192.5999999999999</c:v>
+                  <c:v>1266.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1252</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1288</c:v>
+                  <c:v>1406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>917</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>421.57</c:v>
+                  <c:v>458.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>432</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1121</c:v>
+                  <c:v>1195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>134</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.600000000000009</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0000000000000008E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +1362,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1653268912"/>
@@ -915,7 +1420,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1653268368"/>
@@ -956,7 +1460,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2054,7 +2557,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2068,14 +2571,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="13081000" y="3666490"/>
+        <a:ext cx="5010150" cy="2898140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2098,14 +2601,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12967970" y="242570"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2370,19 +2873,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
@@ -2394,7 +2897,7 @@
     <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43466</v>
       </c>
@@ -2483,28 +2986,28 @@
       </c>
       <c r="L2">
         <f>K2*0.4</f>
-        <v>0.84000000000000008</v>
+        <v>0.84</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
         <f>O2*0.4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q2">
         <f>SUM(B2:J2,L2,N2,P2)</f>
-        <v>423.75000000000006</v>
+        <v>423.75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -2540,7 +3043,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -2561,7 +3064,7 @@
         <v>1610.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
@@ -2597,14 +3100,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2618,7 +3121,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
@@ -2661,7 +3164,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2672,10 +3175,10 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
-        <v>1051.9199999999998</v>
+        <v>1051.92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
@@ -2718,7 +3221,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2732,7 +3235,7 @@
         <v>732.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
@@ -2768,7 +3271,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M7">
         <v>13</v>
@@ -2789,7 +3292,7 @@
         <v>831.36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
@@ -2832,7 +3335,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2843,10 +3346,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>1282.8399999999999</v>
+        <v>1282.84</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
@@ -2889,7 +3392,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2903,7 +3406,7 @@
         <v>1170.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
@@ -2957,10 +3460,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>686.40000000000009</v>
+        <v>686.4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
@@ -3014,19 +3517,55 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>482.09999999999997</v>
+        <v>482.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>102</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <v>39</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
@@ -3035,19 +3574,55 @@
       </c>
       <c r="Q12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>484.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>4.7</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>8.9</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
@@ -3056,10 +3631,10 @@
       </c>
       <c r="Q13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>245.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
@@ -3080,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
@@ -3101,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
@@ -3122,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
@@ -3143,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
@@ -3164,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
@@ -3185,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
@@ -3206,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
@@ -3227,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
@@ -3248,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
@@ -3269,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
@@ -3290,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
@@ -3311,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
@@ -3332,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
@@ -3353,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
@@ -3374,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
@@ -3395,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
@@ -3416,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
@@ -3437,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
@@ -3458,58 +4033,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1272</v>
+        <v>1357</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>924</v>
+        <v>983.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1192.5999999999999</v>
+        <v>1266.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1252</v>
+        <v>1405</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1288</v>
+        <v>1406</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>917</v>
+        <v>968</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>421.57</v>
+        <v>458.47</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1121</v>
+        <v>1195</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>2.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>53.600000000000009</v>
+        <v>66</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3517,43 +4092,43 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="16:17">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>8876.2100000000009</v>
+        <v>9606.21</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:6">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16215" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -73,14 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,345 +88,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,251 +111,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -697,61 +131,85 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,7 +252,6 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -802,8 +259,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.437230060466455"/>
-          <c:y val="0.0539124851749137"/>
+          <c:x val="0.43723006046645502"/>
+          <c:y val="5.3912485174913698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -814,6 +271,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -822,10 +299,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.067463288223438"/>
+          <c:x val="6.7463288223438E-2"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.894673193204722"/>
-          <c:h val="0.657786179898521"/>
+          <c:w val="0.89467319320472205"/>
+          <c:h val="0.65778617989852095"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -858,9 +335,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$32</c:f>
@@ -868,7 +342,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>423.75</c:v>
+                  <c:v>423.75000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1610.44</c:v>
@@ -877,7 +351,7 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.92</c:v>
+                  <c:v>1051.9199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>732.6</c:v>
@@ -886,16 +360,16 @@
                   <c:v>831.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1282.84</c:v>
+                  <c:v>1282.8399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1170.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686.4</c:v>
+                  <c:v>686.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>482.1</c:v>
+                  <c:v>482.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>484.8</c:v>
@@ -904,7 +378,7 @@
                   <c:v>245.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>412.04</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -975,11 +449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1653279792"/>
-        <c:axId val="1653265648"/>
+        <c:axId val="890338032"/>
+        <c:axId val="890338576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1653279792"/>
+        <c:axId val="890338032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,9 +492,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653265648"/>
+        <c:crossAx val="890338576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1653265648"/>
+        <c:axId val="890338576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,9 +551,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653279792"/>
+        <c:crossAx val="890338032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,6 +592,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1176,6 +653,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1197,9 +694,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -1260,49 +754,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1357</c:v>
+                  <c:v>1392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>983.7</c:v>
+                  <c:v>1016.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1266.6</c:v>
+                  <c:v>1301.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1405</c:v>
+                  <c:v>1452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1406</c:v>
+                  <c:v>1492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>968</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>458.47</c:v>
+                  <c:v>487.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>497</c:v>
+                  <c:v>517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1195</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4</c:v>
+                  <c:v>3.6400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>165</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66</c:v>
+                  <c:v>70.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0000000000000008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,11 +812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1653268368"/>
-        <c:axId val="1653268912"/>
+        <c:axId val="890339664"/>
+        <c:axId val="890341840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1653268368"/>
+        <c:axId val="890339664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,9 +856,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653268912"/>
+        <c:crossAx val="890341840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1653268912"/>
+        <c:axId val="890341840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,9 +915,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653268368"/>
+        <c:crossAx val="890339664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,6 +956,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2557,7 +2054,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2571,14 +2068,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13081000" y="3666490"/>
-        <a:ext cx="5010150" cy="2898140"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2601,14 +2098,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12967970" y="242570"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2873,19 +2370,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
@@ -2897,7 +2394,7 @@
     <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43466</v>
       </c>
@@ -2986,28 +2483,28 @@
       </c>
       <c r="L2">
         <f>K2*0.4</f>
-        <v>0.84</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
         <f>O2*0.4</f>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="Q2">
         <f>SUM(B2:J2,L2,N2,P2)</f>
-        <v>423.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>423.75000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -3043,7 +2540,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -3064,7 +2561,7 @@
         <v>1610.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
@@ -3100,14 +2597,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3121,7 +2618,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
@@ -3164,7 +2661,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -3175,10 +2672,10 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
-        <v>1051.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1051.9199999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
@@ -3221,7 +2718,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3235,7 +2732,7 @@
         <v>732.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
@@ -3271,7 +2768,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M7">
         <v>13</v>
@@ -3292,7 +2789,7 @@
         <v>831.36</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
@@ -3335,7 +2832,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3346,10 +2843,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>1282.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1282.8399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
@@ -3392,7 +2889,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3406,7 +2903,7 @@
         <v>1170.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
@@ -3460,10 +2957,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>686.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>686.40000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
@@ -3517,10 +3014,10 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>482.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>482.09999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
@@ -3577,7 +3074,7 @@
         <v>484.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
@@ -3634,16 +3131,52 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>86</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>61</v>
+      </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
@@ -3652,10 +3185,10 @@
       </c>
       <c r="Q14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>412.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
@@ -3676,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
@@ -3697,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
@@ -3718,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
@@ -3739,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
@@ -3760,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
@@ -3781,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
@@ -3802,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
@@ -3823,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
@@ -3844,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
@@ -3865,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
@@ -3886,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
@@ -3907,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
@@ -3928,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
@@ -3949,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
@@ -3970,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
@@ -3991,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
@@ -4012,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
@@ -4033,58 +3566,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1357</v>
+        <v>1392</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>983.7</v>
+        <v>1016.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1266.6</v>
+        <v>1301.5999999999999</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1405</v>
+        <v>1452</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1406</v>
+        <v>1492</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>968</v>
+        <v>1029</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>458.47</v>
+        <v>487.46999999999997</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1195</v>
+        <v>1256</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>3.4</v>
+        <v>3.6400000000000006</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>70.800000000000011</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -4092,43 +3625,43 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="16:17">
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>9606.21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>10018.250000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -381,7 +381,7 @@
                   <c:v>412.04</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>391.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -449,11 +449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="890338032"/>
-        <c:axId val="890338576"/>
+        <c:axId val="-601523104"/>
+        <c:axId val="-601513856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="890338032"/>
+        <c:axId val="-601523104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890338576"/>
+        <c:crossAx val="-601513856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890338576"/>
+        <c:axId val="-601513856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890338032"/>
+        <c:crossAx val="-601523104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,43 +754,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1392</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1016.7</c:v>
+                  <c:v>1036.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1301.5999999999999</c:v>
+                  <c:v>1352.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1452</c:v>
+                  <c:v>1536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1492</c:v>
+                  <c:v>1559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1029</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>487.46999999999997</c:v>
+                  <c:v>501.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>517</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1256</c:v>
+                  <c:v>1318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6400000000000006</c:v>
+                  <c:v>3.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>177</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.800000000000011</c:v>
+                  <c:v>76.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -812,11 +812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="890339664"/>
-        <c:axId val="890341840"/>
+        <c:axId val="-601510048"/>
+        <c:axId val="-601519296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="890339664"/>
+        <c:axId val="-601510048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890341840"/>
+        <c:crossAx val="-601519296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -867,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="890341840"/>
+        <c:axId val="-601519296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +918,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="890339664"/>
+        <c:crossAx val="-601510048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3192,12 +3192,48 @@
       <c r="A15" s="2">
         <v>43479</v>
       </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>62</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
@@ -3206,7 +3242,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>391.16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -3569,55 +3605,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1392</v>
+        <v>1427</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1016.7</v>
+        <v>1036.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1301.5999999999999</v>
+        <v>1352.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1452</v>
+        <v>1536</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1492</v>
+        <v>1559</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1029</v>
+        <v>1066</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>487.46999999999997</v>
+        <v>501.46999999999997</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1256</v>
+        <v>1318</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>3.6400000000000006</v>
+        <v>3.8000000000000007</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>70.800000000000011</v>
+        <v>76.800000000000011</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3634,7 +3670,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>10018.250000000002</v>
+        <v>10409.410000000002</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -136,74 +136,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,7 +316,7 @@
                   <c:v>391.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>230.92000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -449,11 +381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-601523104"/>
-        <c:axId val="-601513856"/>
+        <c:axId val="-2028667472"/>
+        <c:axId val="-2028672368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-601523104"/>
+        <c:axId val="-2028667472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-601513856"/>
+        <c:crossAx val="-2028672368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-601513856"/>
+        <c:axId val="-2028672368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-601523104"/>
+        <c:crossAx val="-2028667472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,43 +686,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1427</c:v>
+                  <c:v>1443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1036.7</c:v>
+                  <c:v>1057.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1352.6</c:v>
+                  <c:v>1386.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1536</c:v>
+                  <c:v>1574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1559</c:v>
+                  <c:v>1591</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1066</c:v>
+                  <c:v>1089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>501.46999999999997</c:v>
+                  <c:v>516.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>532</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1318</c:v>
+                  <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8000000000000007</c:v>
+                  <c:v>3.9200000000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76.800000000000011</c:v>
+                  <c:v>81.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -812,11 +744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-601510048"/>
-        <c:axId val="-601519296"/>
+        <c:axId val="-2028671280"/>
+        <c:axId val="-2028672912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-601510048"/>
+        <c:axId val="-2028671280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-601519296"/>
+        <c:crossAx val="-2028672912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -867,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-601519296"/>
+        <c:axId val="-2028672912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-601510048"/>
+        <c:crossAx val="-2028671280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2126,7 +2058,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2379,7 +2311,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3249,12 +3181,48 @@
       <c r="A16" s="2">
         <v>43480</v>
       </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>0.3</v>
+      </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="M16">
+        <v>12</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
@@ -3263,7 +3231,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>230.92000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3605,55 +3573,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1427</v>
+        <v>1443</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1036.7</v>
+        <v>1057.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1352.6</v>
+        <v>1386.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1536</v>
+        <v>1574</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1559</v>
+        <v>1591</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1066</v>
+        <v>1089</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>501.46999999999997</v>
+        <v>516.47</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1318</v>
+        <v>1344</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>3.8000000000000007</v>
+        <v>3.9200000000000008</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>76.800000000000011</v>
+        <v>81.600000000000009</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3670,7 +3638,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>10409.410000000002</v>
+        <v>10640.330000000002</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -136,6 +136,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -319,7 +387,7 @@
                   <c:v>230.92000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>175.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -381,11 +449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2028667472"/>
-        <c:axId val="-2028672368"/>
+        <c:axId val="1844386064"/>
+        <c:axId val="1844389328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2028667472"/>
+        <c:axId val="1844386064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028672368"/>
+        <c:crossAx val="1844389328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2028672368"/>
+        <c:axId val="1844389328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028667472"/>
+        <c:crossAx val="1844386064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -686,43 +754,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1443</c:v>
+                  <c:v>1463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1057.7</c:v>
+                  <c:v>1073.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1386.6</c:v>
+                  <c:v>1399.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1574</c:v>
+                  <c:v>1592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1591</c:v>
+                  <c:v>1622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1089</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>516.47</c:v>
+                  <c:v>543.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>553</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1344</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9200000000000008</c:v>
+                  <c:v>4.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>204</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81.600000000000009</c:v>
+                  <c:v>88.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -744,11 +812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2028671280"/>
-        <c:axId val="-2028672912"/>
+        <c:axId val="1844387696"/>
+        <c:axId val="1769375616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2028671280"/>
+        <c:axId val="1844387696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028672912"/>
+        <c:crossAx val="1769375616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2028672912"/>
+        <c:axId val="1769375616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +918,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2028671280"/>
+        <c:crossAx val="1844387696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2058,7 +2126,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2311,7 +2379,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3238,12 +3306,48 @@
       <c r="A17" s="2">
         <v>43481</v>
       </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
@@ -3252,7 +3356,7 @@
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>175.20000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3573,55 +3677,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1443</v>
+        <v>1463</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1057.7</v>
+        <v>1073.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1386.6</v>
+        <v>1399.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1574</v>
+        <v>1592</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1591</v>
+        <v>1622</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>516.47</v>
+        <v>543.47</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1344</v>
+        <v>1358</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>9.8000000000000007</v>
+        <v>11.8</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>3.9200000000000008</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>81.600000000000009</v>
+        <v>88.000000000000014</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3638,7 +3742,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>10640.330000000002</v>
+        <v>10815.530000000002</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -390,7 +390,7 @@
                   <c:v>175.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>154.32000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -449,11 +449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1844386064"/>
-        <c:axId val="1844389328"/>
+        <c:axId val="-1040282128"/>
+        <c:axId val="-1040286480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1844386064"/>
+        <c:axId val="-1040282128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844389328"/>
+        <c:crossAx val="-1040286480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1844389328"/>
+        <c:axId val="-1040286480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844386064"/>
+        <c:crossAx val="-1040282128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -754,43 +754,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1463</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1073.7</c:v>
+                  <c:v>1087.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1399.6</c:v>
+                  <c:v>1416.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1592</c:v>
+                  <c:v>1609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1622</c:v>
+                  <c:v>1653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1105</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>543.47</c:v>
+                  <c:v>554.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>566</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1358</c:v>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.8</c:v>
+                  <c:v>13.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7200000000000006</c:v>
+                  <c:v>5.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88.000000000000014</c:v>
+                  <c:v>92.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -812,11 +812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1844387696"/>
-        <c:axId val="1769375616"/>
+        <c:axId val="-1040281584"/>
+        <c:axId val="-1040285936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1844387696"/>
+        <c:axId val="-1040281584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +859,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769375616"/>
+        <c:crossAx val="-1040285936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -867,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1769375616"/>
+        <c:axId val="-1040285936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +918,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1844387696"/>
+        <c:crossAx val="-1040281584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3363,12 +3363,48 @@
       <c r="A18" s="2">
         <v>43482</v>
       </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>1.3</v>
+      </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.52</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
@@ -3377,7 +3413,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>154.32000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3677,55 +3713,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1463</v>
+        <v>1491</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1073.7</v>
+        <v>1087.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1399.6</v>
+        <v>1416.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1592</v>
+        <v>1609</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1622</v>
+        <v>1653</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>543.47</v>
+        <v>554.47</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1358</v>
+        <v>1372</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>11.8</v>
+        <v>13.100000000000001</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>4.7200000000000006</v>
+        <v>5.24</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>88.000000000000014</v>
+        <v>92.800000000000011</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3742,7 +3778,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>10815.530000000002</v>
+        <v>10969.850000000002</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="12345"/>
+    <workbookView windowWidth="23685" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -78,8 +73,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,22 +89,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,9 +435,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -131,85 +697,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -252,6 +794,7 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -259,8 +802,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43723006046645502"/>
-          <c:y val="5.3912485174913698E-2"/>
+          <c:x val="0.437230060466455"/>
+          <c:y val="0.0539124851749137"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -271,26 +814,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" defTabSz="914400">
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -299,10 +822,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7463288223438E-2"/>
+          <c:x val="0.067463288223438"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.89467319320472205"/>
-          <c:h val="0.65778617989852095"/>
+          <c:w val="0.894673193204722"/>
+          <c:h val="0.657786179898521"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -335,6 +858,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$32</c:f>
@@ -342,7 +868,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>423.75000000000006</c:v>
+                  <c:v>423.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1610.44</c:v>
@@ -351,7 +877,7 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.9199999999998</c:v>
+                  <c:v>1051.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>732.6</c:v>
@@ -360,16 +886,16 @@
                   <c:v>831.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1282.8399999999999</c:v>
+                  <c:v>1282.84</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1170.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686.40000000000009</c:v>
+                  <c:v>686.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>482.09999999999997</c:v>
+                  <c:v>482.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>484.8</c:v>
@@ -384,16 +910,16 @@
                   <c:v>391.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>230.92000000000002</c:v>
+                  <c:v>230.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>175.20000000000002</c:v>
+                  <c:v>175.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>154.32000000000002</c:v>
+                  <c:v>154.32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>133.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -492,7 +1018,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1040286480"/>
@@ -551,7 +1076,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1040282128"/>
@@ -592,7 +1116,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -653,26 +1176,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -694,6 +1197,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -754,49 +1260,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1491</c:v>
+                  <c:v>1515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1087.7</c:v>
+                  <c:v>1103.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1416.6</c:v>
+                  <c:v>1428.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1609</c:v>
+                  <c:v>1623</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1653</c:v>
+                  <c:v>1667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1116</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>554.47</c:v>
+                  <c:v>566.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1372</c:v>
+                  <c:v>1382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.100000000000001</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.24</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>232</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92.800000000000011</c:v>
+                  <c:v>98.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0000000000000008E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +1362,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1040285936"/>
@@ -915,7 +1420,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1040281584"/>
@@ -956,7 +1460,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2054,7 +2557,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2068,14 +2571,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="13081000" y="3666490"/>
+        <a:ext cx="5010150" cy="2898140"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2098,14 +2601,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="12967970" y="242570"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2370,19 +2873,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
@@ -2394,7 +2897,7 @@
     <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2447,7 +2950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>43466</v>
       </c>
@@ -2483,28 +2986,28 @@
       </c>
       <c r="L2">
         <f>K2*0.4</f>
-        <v>0.84000000000000008</v>
+        <v>0.84</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
         <f>O2*0.4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q2">
         <f>SUM(B2:J2,L2,N2,P2)</f>
-        <v>423.75000000000006</v>
+        <v>423.75</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -2540,7 +3043,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -2561,7 +3064,7 @@
         <v>1610.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
@@ -2597,14 +3100,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2618,7 +3121,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
@@ -2661,7 +3164,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2672,10 +3175,10 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
-        <v>1051.9199999999998</v>
+        <v>1051.92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
@@ -2718,7 +3221,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2732,7 +3235,7 @@
         <v>732.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
@@ -2768,7 +3271,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M7">
         <v>13</v>
@@ -2789,7 +3292,7 @@
         <v>831.36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
@@ -2832,7 +3335,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2843,10 +3346,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>1282.8399999999999</v>
+        <v>1282.84</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
@@ -2889,7 +3392,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2903,7 +3406,7 @@
         <v>1170.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
@@ -2957,10 +3460,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>686.40000000000009</v>
+        <v>686.4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
@@ -3014,10 +3517,10 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>482.09999999999997</v>
+        <v>482.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
@@ -3074,7 +3577,7 @@
         <v>484.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
@@ -3131,7 +3634,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
@@ -3174,7 +3677,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3188,7 +3691,7 @@
         <v>412.04</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
@@ -3224,7 +3727,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.16000000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -3245,7 +3748,7 @@
         <v>391.16</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
@@ -3288,7 +3791,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3299,10 +3802,10 @@
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>230.92000000000002</v>
+        <v>230.92</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
@@ -3356,10 +3859,10 @@
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>175.20000000000002</v>
+        <v>175.2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
@@ -3402,7 +3905,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <v>4.8</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3413,19 +3916,55 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>154.32000000000002</v>
+        <v>154.32</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>0.4</v>
+      </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
@@ -3434,10 +3973,10 @@
       </c>
       <c r="Q19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>133.76</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
@@ -3458,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
@@ -3479,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
@@ -3500,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
@@ -3521,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
@@ -3542,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
@@ -3563,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
@@ -3584,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
@@ -3605,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
@@ -3626,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
@@ -3647,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
@@ -3668,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
@@ -3689,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
@@ -3710,58 +4249,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1491</v>
+        <v>1515</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1087.7</v>
+        <v>1103.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1416.6</v>
+        <v>1428.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1609</v>
+        <v>1623</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1653</v>
+        <v>1667</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>554.47</v>
+        <v>566.47</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1372</v>
+        <v>1382</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>13.100000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.24</v>
+        <v>5.4</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>92.800000000000011</v>
+        <v>98.4</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3769,43 +4308,43 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>4.0000000000000008E-2</v>
+        <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="16:17">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>10969.850000000002</v>
+        <v>11103.61</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:6">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LayaWorkspace\小游戏文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23685" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -73,14 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,345 +88,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,251 +111,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -697,61 +131,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,7 +184,6 @@
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>每日收入</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -802,8 +191,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.437230060466455"/>
-          <c:y val="0.0539124851749137"/>
+          <c:x val="0.43723006046645502"/>
+          <c:y val="5.3912485174913698E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -814,6 +203,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -822,10 +231,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.067463288223438"/>
+          <c:x val="6.7463288223438E-2"/>
           <c:y val="0.218988238021776"/>
-          <c:w val="0.894673193204722"/>
-          <c:h val="0.657786179898521"/>
+          <c:w val="0.89467319320472205"/>
+          <c:h val="0.65778617989852095"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -858,9 +267,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$Q$2:$Q$32</c:f>
@@ -868,7 +274,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>423.75</c:v>
+                  <c:v>423.75000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1610.44</c:v>
@@ -877,7 +283,7 @@
                   <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1051.92</c:v>
+                  <c:v>1051.9199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>732.6</c:v>
@@ -886,16 +292,16 @@
                   <c:v>831.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1282.84</c:v>
+                  <c:v>1282.8399999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1170.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>686.4</c:v>
+                  <c:v>686.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>482.1</c:v>
+                  <c:v>482.09999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>484.8</c:v>
@@ -910,22 +316,22 @@
                   <c:v>391.16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>230.92</c:v>
+                  <c:v>230.92000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>175.2</c:v>
+                  <c:v>175.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>154.32</c:v>
+                  <c:v>154.32000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>133.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>90.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>47.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -975,11 +381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1040282128"/>
-        <c:axId val="-1040286480"/>
+        <c:axId val="-40473312"/>
+        <c:axId val="-40464608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1040282128"/>
+        <c:axId val="-40473312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,9 +424,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1040286480"/>
+        <c:crossAx val="-40464608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1040286480"/>
+        <c:axId val="-40464608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,9 +483,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1040282128"/>
+        <c:crossAx val="-40473312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,6 +524,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1176,6 +585,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1197,9 +626,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$P$1</c:f>
@@ -1260,49 +686,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1515</c:v>
+                  <c:v>1539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1103.7</c:v>
+                  <c:v>1115.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1428.6</c:v>
+                  <c:v>1441.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1623</c:v>
+                  <c:v>1632.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1667</c:v>
+                  <c:v>1679.8999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1130</c:v>
+                  <c:v>1146.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>566.47</c:v>
+                  <c:v>576.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>584</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1382</c:v>
+                  <c:v>1405.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.5</c:v>
+                  <c:v>14.300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4</c:v>
+                  <c:v>5.7200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>246</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.4</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.04</c:v>
+                  <c:v>4.0000000000000008E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,11 +744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1040281584"/>
-        <c:axId val="-1040285936"/>
+        <c:axId val="-40466784"/>
+        <c:axId val="-40461888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1040281584"/>
+        <c:axId val="-40466784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,9 +788,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1040285936"/>
+        <c:crossAx val="-40461888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1040285936"/>
+        <c:axId val="-40461888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,9 +847,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1040281584"/>
+        <c:crossAx val="-40466784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,6 +888,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2557,7 +1986,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
@@ -2571,14 +2000,14 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13081000" y="3666490"/>
-        <a:ext cx="5010150" cy="2898140"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2601,14 +2030,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12967970" y="242570"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2629,7 +2058,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2873,19 +2302,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
@@ -2897,7 +2326,7 @@
     <col min="17" max="17" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +2379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43466</v>
       </c>
@@ -2986,28 +2415,28 @@
       </c>
       <c r="L2">
         <f>K2*0.4</f>
-        <v>0.84</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="M2">
         <v>14</v>
       </c>
       <c r="N2">
         <f>M2*0.4</f>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
         <f>O2*0.4</f>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="Q2">
         <f>SUM(B2:J2,L2,N2,P2)</f>
-        <v>423.75</v>
+        <v>423.75000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>43467</v>
       </c>
@@ -3043,7 +2472,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L32" si="0">K3*0.4</f>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -3064,7 +2493,7 @@
         <v>1610.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>43468</v>
       </c>
@@ -3100,14 +2529,14 @@
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3121,7 +2550,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>43469</v>
       </c>
@@ -3164,7 +2593,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -3175,10 +2604,10 @@
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="3">SUM(B5:J5,L5,N5,P5)</f>
-        <v>1051.92</v>
+        <v>1051.9199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>43470</v>
       </c>
@@ -3221,7 +2650,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3235,7 +2664,7 @@
         <v>732.6</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>43471</v>
       </c>
@@ -3271,7 +2700,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M7">
         <v>13</v>
@@ -3292,7 +2721,7 @@
         <v>831.36</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>43472</v>
       </c>
@@ -3335,7 +2764,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3346,10 +2775,10 @@
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>1282.84</v>
+        <v>1282.8399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>43473</v>
       </c>
@@ -3392,7 +2821,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3406,7 +2835,7 @@
         <v>1170.8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43474</v>
       </c>
@@ -3460,10 +2889,10 @@
       </c>
       <c r="Q10">
         <f t="shared" si="3"/>
-        <v>686.4</v>
+        <v>686.40000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>43475</v>
       </c>
@@ -3517,10 +2946,10 @@
       </c>
       <c r="Q11">
         <f t="shared" si="3"/>
-        <v>482.1</v>
+        <v>482.09999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>43476</v>
       </c>
@@ -3577,7 +3006,7 @@
         <v>484.8</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>43477</v>
       </c>
@@ -3634,7 +3063,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>43478</v>
       </c>
@@ -3677,7 +3106,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3691,7 +3120,7 @@
         <v>412.04</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>43479</v>
       </c>
@@ -3727,7 +3156,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M15">
         <v>15</v>
@@ -3748,7 +3177,7 @@
         <v>391.16</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>43480</v>
       </c>
@@ -3791,7 +3220,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3802,10 +3231,10 @@
       </c>
       <c r="Q16">
         <f t="shared" si="3"/>
-        <v>230.92</v>
+        <v>230.92000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>43481</v>
       </c>
@@ -3859,10 +3288,10 @@
       </c>
       <c r="Q17">
         <f t="shared" si="3"/>
-        <v>175.2</v>
+        <v>175.20000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>43482</v>
       </c>
@@ -3905,7 +3334,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3916,10 +3345,10 @@
       </c>
       <c r="Q18">
         <f t="shared" si="3"/>
-        <v>154.32</v>
+        <v>154.32000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>43483</v>
       </c>
@@ -3955,14 +3384,14 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="M19">
         <v>14</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -3976,16 +3405,52 @@
         <v>133.76</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>43484</v>
       </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>4.8</v>
+      </c>
+      <c r="F20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I20">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
@@ -3994,19 +3459,55 @@
       </c>
       <c r="Q20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>90.1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>43485</v>
       </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>4.3</v>
+      </c>
+      <c r="F21">
+        <v>7.8</v>
+      </c>
+      <c r="G21">
+        <v>4.7</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>4.7</v>
+      </c>
+      <c r="J21">
+        <v>4.5</v>
+      </c>
+      <c r="K21">
+        <v>0.3</v>
+      </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
@@ -4015,10 +3516,10 @@
       </c>
       <c r="Q21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>47.92</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>43486</v>
       </c>
@@ -4039,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>43487</v>
       </c>
@@ -4060,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>43488</v>
       </c>
@@ -4081,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>43489</v>
       </c>
@@ -4102,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43490</v>
       </c>
@@ -4123,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>43491</v>
       </c>
@@ -4144,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>43492</v>
       </c>
@@ -4165,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>43493</v>
       </c>
@@ -4186,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>43494</v>
       </c>
@@ -4207,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>43495</v>
       </c>
@@ -4228,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>43496</v>
       </c>
@@ -4249,58 +3750,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1515</v>
+        <v>1539</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1103.7</v>
+        <v>1115.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1428.6</v>
+        <v>1441.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1623</v>
+        <v>1632.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1667</v>
+        <v>1679.8999999999999</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1130</v>
+        <v>1146.7</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>566.47</v>
+        <v>576.37</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1382</v>
+        <v>1405.5</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>13.5</v>
+        <v>14.300000000000002</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.4</v>
+        <v>5.7200000000000006</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>98.4</v>
+        <v>108</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -4308,43 +3809,43 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>0.04</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="34" spans="16:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="P34" t="s">
         <v>17</v>
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>11103.61</v>
+        <v>11241.630000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -334,7 +334,7 @@
                   <c:v>47.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>145.54</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -381,11 +381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-40473312"/>
-        <c:axId val="-40464608"/>
+        <c:axId val="-912111312"/>
+        <c:axId val="-912125456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-40473312"/>
+        <c:axId val="-912111312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40464608"/>
+        <c:crossAx val="-912125456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,7 +435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-40464608"/>
+        <c:axId val="-912125456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40473312"/>
+        <c:crossAx val="-912111312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -686,43 +686,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1539</c:v>
+                  <c:v>1565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1115.7</c:v>
+                  <c:v>1125.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1441.6</c:v>
+                  <c:v>1455.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1632.1</c:v>
+                  <c:v>1654.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1679.8999999999999</c:v>
+                  <c:v>1696.8999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1146.7</c:v>
+                  <c:v>1162.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>576.37</c:v>
+                  <c:v>585.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>591</c:v>
+                  <c:v>603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1405.5</c:v>
+                  <c:v>1418.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.300000000000002</c:v>
+                  <c:v>14.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7200000000000006</c:v>
+                  <c:v>5.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -744,11 +744,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-40466784"/>
-        <c:axId val="-40461888"/>
+        <c:axId val="-912123280"/>
+        <c:axId val="-912120016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-40466784"/>
+        <c:axId val="-912123280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40461888"/>
+        <c:crossAx val="-912120016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-40461888"/>
+        <c:axId val="-912120016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40466784"/>
+        <c:crossAx val="-912123280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,7 +2311,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3523,12 +3523,48 @@
       <c r="A22" s="2">
         <v>43486</v>
       </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>9.5</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>0.1</v>
+      </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
@@ -3537,7 +3573,7 @@
       </c>
       <c r="Q22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>145.54</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3753,55 +3789,55 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1539</v>
+        <v>1565</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1115.7</v>
+        <v>1125.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1441.6</v>
+        <v>1455.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1632.1</v>
+        <v>1654.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1679.8999999999999</v>
+        <v>1696.8999999999999</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1146.7</v>
+        <v>1162.7</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>576.37</v>
+        <v>585.87</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1405.5</v>
+        <v>1418.5</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>14.300000000000002</v>
+        <v>14.400000000000002</v>
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>5.7200000000000006</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3818,7 +3854,7 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>11241.630000000003</v>
+        <v>11387.170000000004</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">

--- a/小游戏文档/1月小游戏收入.xlsx
+++ b/小游戏文档/1月小游戏收入.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -74,12 +74,24 @@
   <si>
     <t>月收入</t>
   </si>
+  <si>
+    <t>账户A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +101,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -117,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,6 +148,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -337,7 +360,7 @@
                   <c:v>145.54</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>130.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -381,11 +404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-912111312"/>
-        <c:axId val="-912125456"/>
+        <c:axId val="-743116976"/>
+        <c:axId val="-743120784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-912111312"/>
+        <c:axId val="-743116976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -427,7 +450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-912125456"/>
+        <c:crossAx val="-743120784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -435,7 +458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-912125456"/>
+        <c:axId val="-743120784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-912111312"/>
+        <c:crossAx val="-743116976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -686,31 +709,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1565</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1125.7</c:v>
+                  <c:v>1133.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1455.6</c:v>
+                  <c:v>1462.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1654.1</c:v>
+                  <c:v>1676.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1696.8999999999999</c:v>
+                  <c:v>1716.8999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1162.7</c:v>
+                  <c:v>1176.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>585.87</c:v>
+                  <c:v>588.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>603</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1418.5</c:v>
+                  <c:v>1430.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14.400000000000002</c:v>
@@ -719,10 +742,10 @@
                   <c:v>5.7600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>285</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>114</c:v>
+                  <c:v>117.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1</c:v>
@@ -744,11 +767,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-912123280"/>
-        <c:axId val="-912120016"/>
+        <c:axId val="-743127312"/>
+        <c:axId val="-743118608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-912123280"/>
+        <c:axId val="-743127312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-912120016"/>
+        <c:crossAx val="-743118608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-912120016"/>
+        <c:axId val="-743118608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +873,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-912123280"/>
+        <c:crossAx val="-743127312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,7 +2334,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3580,13 +3603,43 @@
       <c r="A23" s="2">
         <v>43487</v>
       </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
       <c r="L23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
@@ -3594,7 +3647,7 @@
       </c>
       <c r="Q23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>130.19999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3789,39 +3842,39 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="shared" ref="B33:P33" si="4">SUM(B2:B32)</f>
-        <v>1565</v>
+        <v>1590</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>1125.7</v>
+        <v>1133.7</v>
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>1455.6</v>
+        <v>1462.6</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>1654.1</v>
+        <v>1676.1</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1696.8999999999999</v>
+        <v>1716.8999999999999</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>1162.7</v>
+        <v>1176.7</v>
       </c>
       <c r="H33">
         <f t="shared" si="4"/>
-        <v>585.87</v>
+        <v>588.87</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>1418.5</v>
+        <v>1430.5</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
@@ -3833,11 +3886,11 @@
       </c>
       <c r="M33">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N33">
         <f t="shared" si="4"/>
-        <v>114</v>
+        <v>117.2</v>
       </c>
       <c r="O33">
         <f t="shared" si="4"/>
@@ -3854,18 +3907,37 @@
       </c>
       <c r="Q34">
         <f>SUM(Q2:Q33)</f>
-        <v>11387.170000000004</v>
+        <v>11517.370000000004</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B33,D33,H33,E33)</f>
+        <v>5317.57</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4466.76</v>
+      </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
+      <c r="A36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <f>SUM(C33,J33,I33,F33,G33)</f>
+        <v>6076.7999999999993</v>
+      </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>5104.51</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
